--- a/progetto/results/randomMergeHeapPython/radixBase100.xlsx
+++ b/progetto/results/randomMergeHeapPython/radixBase100.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.002197980880737305</v>
+        <v>0.002243280410766602</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.004879236221313477</v>
+        <v>0.003289461135864258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.004401922225952149</v>
+        <v>0.004370927810668945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.005503416061401367</v>
+        <v>0.00548243522644043</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.006527900695800781</v>
+        <v>0.01223373413085938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.007829189300537109</v>
+        <v>0.008273839950561523</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.008722066879272461</v>
+        <v>0.01088476181030273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.009775876998901369</v>
+        <v>0.01258659362792969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.01149988174438477</v>
+        <v>0.01255488395690918</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.01209712028503418</v>
+        <v>0.01272487640380859</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.01286554336547852</v>
+        <v>0.01340484619140625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.0288689136505127</v>
+        <v>0.01553654670715332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.01466870307922363</v>
+        <v>0.021820068359375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.0157620906829834</v>
+        <v>0.01605010032653809</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.01727724075317383</v>
+        <v>0.01978921890258789</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.01839327812194824</v>
+        <v>0.01911473274230957</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.02128720283508301</v>
+        <v>0.02069211006164551</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.02007627487182617</v>
+        <v>0.02153682708740234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.03210687637329102</v>
+        <v>0.03173017501831055</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.03909802436828613</v>
+        <v>0.03539752960205078</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.0451810359954834</v>
+        <v>0.03859806060791016</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.04492497444152832</v>
+        <v>0.04378795623779297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.04822635650634766</v>
+        <v>0.04727816581726074</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.05216336250305176</v>
+        <v>0.05083346366882324</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.05229806900024414</v>
+        <v>0.05257034301757812</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.05881166458129883</v>
+        <v>0.05510234832763672</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.06391644477844237</v>
+        <v>0.05808377265930176</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.06361675262451172</v>
+        <v>0.06147027015686035</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.07556247711181641</v>
+        <v>0.06447958946228027</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.06865787506103516</v>
+        <v>0.06793689727783203</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.07210063934326172</v>
+        <v>0.0712885856628418</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.07572484016418457</v>
+        <v>0.1048660278320312</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.08335018157958984</v>
+        <v>0.07744002342224121</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.08620476722717285</v>
+        <v>0.08069634437561035</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.1124916076660156</v>
+        <v>0.08423519134521484</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.1018941402435303</v>
+        <v>0.09095025062561037</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.1038343906402588</v>
+        <v>0.09326577186584473</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.1906251907348633</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.1338853836059571</v>
+        <v>0.09831690788269044</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.1008899211883545</v>
+        <v>0.100369930267334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.1085352897644043</v>
+        <v>0.1037900447845459</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.1110081672668457</v>
+        <v>0.1096844673156738</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.177950382232666</v>
+        <v>0.1131999492645264</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.1150951385498047</v>
+        <v>0.1130797863006592</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.1270723342895508</v>
+        <v>0.1154153347015381</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.1228926181793213</v>
+        <v>0.1214869022369385</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.1311109066009521</v>
+        <v>0.1244170665740967</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.1355412006378174</v>
+        <v>0.129371166229248</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.1348302364349365</v>
+        <v>0.1362264156341553</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.1492366790771484</v>
+        <v>0.1403777599334717</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.1436150074005127</v>
+        <v>0.141171932220459</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.1470575332641602</v>
+        <v>0.1454732418060303</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.151731014251709</v>
+        <v>0.1463031768798828</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.1534726619720459</v>
+        <v>0.1505947113037109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.1566402912139893</v>
+        <v>0.1520590782165527</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.1642827987670898</v>
+        <v>0.160137414932251</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.1638896465301513</v>
+        <v>0.1620917320251465</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.1664190292358398</v>
+        <v>0.1669178009033203</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.1685097217559814</v>
+        <v>0.1652917861938477</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.1892509460449219</v>
+        <v>0.1871857643127441</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.207430362701416</v>
+        <v>0.2025156021118164</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.2235336303710937</v>
+        <v>0.2362165451049805</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.2459561824798584</v>
+        <v>0.2394516468048096</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.2636692523956299</v>
+        <v>0.2568719387054443</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>0.2958469390869141</v>
+        <v>0.2779648303985596</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>0.2970740795135498</v>
+        <v>0.289719820022583</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>0.3231005668640137</v>
+        <v>0.3111572265625</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>0.3336892127990723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>0.343458890914917</v>
+        <v>0.3328843116760254</v>
       </c>
     </row>
   </sheetData>
